--- a/data/zone.xlsx
+++ b/data/zone.xlsx
@@ -8,29 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2FC794-622E-446F-8903-CB935E90BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5534A-77F6-4BB6-BE12-F6A61DF03ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>zone</t>
   </si>
   <si>
-    <t>indemnité</t>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>trajet</t>
   </si>
 </sst>
 </file>
@@ -348,76 +362,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.64</v>
+      </c>
+      <c r="C2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.26</v>
+      </c>
+      <c r="C3">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.69</v>
+      </c>
+      <c r="C4">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12.73</v>
+      </c>
+      <c r="C5">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16.28</v>
+      </c>
+      <c r="C6">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <f>B6+B2</f>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="C7">
+        <f>C6+C2</f>
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <f>B7+B2</f>
+        <v>21.560000000000002</v>
+      </c>
+      <c r="C8">
+        <f>C7+C2</f>
+        <v>10.88</v>
       </c>
     </row>
   </sheetData>
